--- a/Data/N_Ind_result.xlsx
+++ b/Data/N_Ind_result.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12648" windowHeight="6480" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9707" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="igueossgie" sheetId="2" r:id="rId1"/>
     <sheet name="Ogua" sheetId="3" r:id="rId2"/>
     <sheet name="Iguovbiobo" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Ahor Urokosa" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="146">
   <si>
     <t>Collection Method</t>
   </si>
@@ -1620,16 +1620,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="29.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="23.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1909,27 +1909,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>0.8333</v>
+      </c>
+      <c r="E13">
+        <v>0.3333</v>
+      </c>
+      <c r="F13">
+        <v>0.527</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>0.9167</v>
+      </c>
+      <c r="E14">
+        <v>0.4667</v>
+      </c>
+      <c r="F14">
+        <v>0.654</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1937,22 +1960,22 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>0.8333</v>
+        <v>0.8125</v>
       </c>
       <c r="E15">
-        <v>0.3333</v>
+        <v>0.4667</v>
       </c>
       <c r="F15">
-        <v>0.527</v>
+        <v>0.616</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1960,19 +1983,19 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>0.9167</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0.4667</v>
       </c>
       <c r="F16">
-        <v>0.654</v>
+        <v>0.683</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1983,19 +2006,19 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>0.8125</v>
+        <v>0.7755</v>
       </c>
       <c r="E17">
-        <v>0.4667</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.616</v>
+        <v>0.881</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -2006,22 +2029,22 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.6429</v>
       </c>
       <c r="E18">
         <v>0.4667</v>
       </c>
       <c r="F18">
-        <v>0.683</v>
+        <v>0.548</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2032,19 +2055,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>0.7755</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.2667</v>
       </c>
       <c r="F19">
-        <v>0.881</v>
+        <v>0.516</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2052,22 +2075,22 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>0.6429</v>
+        <v>0.9394</v>
       </c>
       <c r="E20">
-        <v>0.4667</v>
+        <v>0.9</v>
       </c>
       <c r="F20">
-        <v>0.548</v>
+        <v>0.919</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2075,22 +2098,22 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.2667</v>
+        <v>0.4</v>
       </c>
       <c r="F21">
-        <v>0.516</v>
+        <v>0.632</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2101,19 +2124,19 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>0.9394</v>
+        <v>0.8</v>
       </c>
       <c r="E22">
-        <v>0.9</v>
+        <v>0.3333</v>
       </c>
       <c r="F22">
-        <v>0.919</v>
+        <v>0.516</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2124,19 +2147,19 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.4</v>
+        <v>0.1667</v>
       </c>
       <c r="F23">
-        <v>0.632</v>
+        <v>0.408</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2144,22 +2167,22 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>0.8</v>
+        <v>0.9286</v>
       </c>
       <c r="E24">
-        <v>0.3333</v>
+        <v>0.4</v>
       </c>
       <c r="F24">
-        <v>0.516</v>
+        <v>0.609</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2167,22 +2190,22 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="E25">
-        <v>0.1667</v>
+        <v>0.3</v>
       </c>
       <c r="F25">
-        <v>0.408</v>
+        <v>0.53</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2190,19 +2213,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>0.9286</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0.4</v>
+        <v>0.7111</v>
       </c>
       <c r="F26">
-        <v>0.609</v>
+        <v>0.843</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -2213,22 +2236,22 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>0.9375</v>
+        <v>0.8082</v>
       </c>
       <c r="E27">
-        <v>0.3</v>
+        <v>0.6222</v>
       </c>
       <c r="F27">
-        <v>0.53</v>
+        <v>0.709</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2236,22 +2259,22 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9865</v>
       </c>
       <c r="E28">
-        <v>0.7111</v>
+        <v>0.4667</v>
       </c>
       <c r="F28">
-        <v>0.843</v>
+        <v>0.678</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2259,67 +2282,21 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>0.8082</v>
+        <v>0.9909</v>
       </c>
       <c r="E29">
-        <v>0.6222</v>
+        <v>0.9733</v>
       </c>
       <c r="F29">
-        <v>0.709</v>
+        <v>0.982</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30">
-        <v>0.9865</v>
-      </c>
-      <c r="E30">
-        <v>0.4667</v>
-      </c>
-      <c r="F30">
-        <v>0.678</v>
-      </c>
-      <c r="G30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>0.9909</v>
-      </c>
-      <c r="E31">
-        <v>0.9733</v>
-      </c>
-      <c r="F31">
-        <v>0.982</v>
-      </c>
-      <c r="G31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2884,8 +2861,8 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3618,7 +3595,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Data/N_Ind_result.xlsx
+++ b/Data/N_Ind_result.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Ogua" sheetId="3" r:id="rId2"/>
     <sheet name="Iguovbiobo" sheetId="4" r:id="rId3"/>
     <sheet name="Ahor Urokosa" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3595,7 +3596,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -4436,4 +4437,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>